--- a/mySystem/mySystem/xls/BPVBag/SOP-MFG-102-R02A 生产退料记录.xlsx
+++ b/mySystem/mySystem/xls/BPVBag/SOP-MFG-102-R02A 生产退料记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mySystem\mySystem\xls\CSBag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\upload\mitcpro\mySystem\mySystem\xls\BPVBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <r>
       <rPr>
@@ -113,32 +113,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>审核员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>操作人</t>
-  </si>
-  <si>
-    <t>操作人备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>复核人</t>
@@ -148,8 +123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -217,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -300,43 +275,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -377,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -439,22 +377,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -478,7 +407,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -740,13 +669,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.2" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="24.2" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="4" customWidth="1"/>
@@ -756,12 +685,12 @@
     <col min="6" max="6" width="13.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.75" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.875" style="4" customWidth="1"/>
-    <col min="9" max="10" width="10.375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
+    <col min="9" max="9" width="13.875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.875" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,12 +702,11 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="35.450000000000003" customHeight="1">
+    <row r="2" spans="1:12" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
@@ -791,9 +719,8 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" ht="24.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
@@ -806,15 +733,14 @@
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="31.5" customHeight="1">
+    </row>
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -840,17 +766,14 @@
         <v>9</v>
       </c>
       <c r="I4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -861,9 +784,8 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="21.95" customHeight="1">
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -874,9 +796,8 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="21.95" customHeight="1">
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -887,9 +808,8 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="21.95" customHeight="1">
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -900,9 +820,8 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="21.95" customHeight="1">
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -913,9 +832,8 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" ht="21.95" customHeight="1">
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -926,9 +844,8 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="21.95" customHeight="1">
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -939,9 +856,8 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" ht="21.95" customHeight="1">
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -952,9 +868,8 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" ht="21.95" customHeight="1">
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -965,9 +880,8 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" ht="21.95" customHeight="1">
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -978,50 +892,32 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A15" s="24" t="s">
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
-    </row>
-    <row r="16" spans="1:13" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A16" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
-    </row>
-    <row r="17" spans="2:3" ht="24.2" customHeight="1">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:12" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:K2"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
